--- a/r-tutorial/data/example-airlines.xlsx
+++ b/r-tutorial/data/example-airlines.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="airlines_sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
